--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5461B1E9-0EE1-4767-8258-C2DC237790A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C199A265-168D-496B-A3A0-0DB32597F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -821,12 +826,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -888,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -902,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -940,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1287,14 +1292,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1711,7 +1716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2798,13 +2803,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="214" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2890,6 +2895,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3178,14 +3185,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3238,7 +3245,7 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3246,17 +3253,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="33" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="33" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3292,119 +3297,49 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="14" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="18" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3419,124 +3354,112 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="15" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="214" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="calculated" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="5"/>
-    <cellStyle name="Comma 10" xfId="6"/>
-    <cellStyle name="Comma 11" xfId="7"/>
-    <cellStyle name="Comma 2" xfId="8"/>
-    <cellStyle name="Comma 2 2" xfId="9"/>
-    <cellStyle name="Comma 2 3" xfId="10"/>
-    <cellStyle name="Comma 2 4" xfId="11"/>
-    <cellStyle name="Comma 2 5" xfId="12"/>
-    <cellStyle name="Comma 3" xfId="13"/>
-    <cellStyle name="Good" xfId="14" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
-    <cellStyle name="Hyperlink 3" xfId="16"/>
-    <cellStyle name="Neutral" xfId="17" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="18"/>
-    <cellStyle name="Normal 11" xfId="19"/>
-    <cellStyle name="Normal 11 2" xfId="20"/>
-    <cellStyle name="Normal 11 3" xfId="21"/>
-    <cellStyle name="Normal 11 4" xfId="22"/>
-    <cellStyle name="Normal 12" xfId="23"/>
-    <cellStyle name="Normal 12 2" xfId="24"/>
-    <cellStyle name="Normal 12 3" xfId="25"/>
-    <cellStyle name="Normal 12 4" xfId="26"/>
-    <cellStyle name="Normal 2" xfId="27"/>
-    <cellStyle name="Normal 2 2" xfId="28"/>
-    <cellStyle name="Normal 2 3" xfId="29"/>
-    <cellStyle name="Normal 2 4" xfId="30"/>
-    <cellStyle name="Normal 3" xfId="31"/>
-    <cellStyle name="Normal 39" xfId="32"/>
-    <cellStyle name="Normal 4" xfId="33"/>
-    <cellStyle name="Normal 4 2" xfId="34"/>
-    <cellStyle name="Normal 8" xfId="35"/>
-    <cellStyle name="Normal 9 2" xfId="36"/>
-    <cellStyle name="Normale_B2020" xfId="37"/>
-    <cellStyle name="Note 2" xfId="38"/>
-    <cellStyle name="Percent 2" xfId="39"/>
-    <cellStyle name="Percent 2 2" xfId="40"/>
-    <cellStyle name="Percent 2 2 2" xfId="41"/>
-    <cellStyle name="Percent 2 3" xfId="42"/>
-    <cellStyle name="Percent 3" xfId="43"/>
-    <cellStyle name="Percent 3 2" xfId="44"/>
-    <cellStyle name="Percent 3 2 2" xfId="45"/>
-    <cellStyle name="Percent 3 3" xfId="46"/>
-    <cellStyle name="Percent 3 4" xfId="47"/>
-    <cellStyle name="Percent 4" xfId="48"/>
-    <cellStyle name="Percent 4 2" xfId="49"/>
-    <cellStyle name="Percent 4 3" xfId="50"/>
-    <cellStyle name="Percent 4 4" xfId="51"/>
-    <cellStyle name="Percent 5" xfId="52"/>
-    <cellStyle name="Percent 5 2" xfId="53"/>
-    <cellStyle name="Percent 6" xfId="54"/>
-    <cellStyle name="Percent 6 2" xfId="55"/>
-    <cellStyle name="Percent 7" xfId="56"/>
-    <cellStyle name="Percent 8" xfId="57"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="58"/>
+    <cellStyle name="20% — akcent 5" xfId="1" builtinId="46"/>
+    <cellStyle name="40% — akcent 3" xfId="2" builtinId="39"/>
+    <cellStyle name="Akcent 2" xfId="3" builtinId="33"/>
+    <cellStyle name="calculated" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Calculation 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 11" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Dobry" xfId="14" builtinId="26"/>
+    <cellStyle name="Hiperłącze" xfId="15" builtinId="8"/>
+    <cellStyle name="Hyperlink 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Neutralny" xfId="17" builtinId="28"/>
+    <cellStyle name="Normal 10" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 11" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 11 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 11 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 11 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 12" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 12 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 12 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 12 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 2 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 39" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 9 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normale_B2020" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Note 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Percent 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Percent 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Percent 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Percent 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Percent 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Percent 3 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Percent 3 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Percent 3 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Percent 4" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Percent 4 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent 4 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Percent 4 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Percent 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 5 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Percent 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Percent 6 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Percent 7" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Percent 8" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4419,7 +4342,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4554,9 +4477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4594,7 +4517,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4700,7 +4623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4873,30 +4796,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="7" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="7" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -4908,936 +4831,881 @@
     <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P5" s="110" t="s">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="Q5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="S5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="U5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="110" t="s">
+      <c r="V5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="110" t="s">
+      <c r="W5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="110" t="s">
+      <c r="X5" s="67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="1:24" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="112" t="s">
+      <c r="H6" s="35"/>
+      <c r="P6" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="112" t="s">
+      <c r="T6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="V6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="112" t="s">
+      <c r="W6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="112" t="s">
+      <c r="X6" s="69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33" t="s">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H7" s="32"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="108" t="s">
+      <c r="P10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="110" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="111" t="s">
+      <c r="Q11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="R11" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="110" t="s">
+      <c r="S11" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="110" t="s">
+      <c r="T11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="110" t="s">
+      <c r="U11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="110" t="s">
+      <c r="V11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="110" t="s">
+      <c r="W11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="110" t="s">
+      <c r="X11" s="67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="113" t="s">
+      <c r="P12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="113" t="s">
+      <c r="Q12" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="113" t="s">
+      <c r="R12" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="113" t="s">
+      <c r="S12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="113" t="s">
+      <c r="T12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="113" t="s">
+      <c r="U12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="113" t="s">
+      <c r="V12" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="W12" s="113" t="s">
+      <c r="W12" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="113" t="s">
+      <c r="X12" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="112" t="s">
+      <c r="N13" s="19"/>
+      <c r="P13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="str">
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="str">
         <f>R14</f>
         <v>ELCTNCOA01</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>2006</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="27">
         <v>0.42</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>0.85</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="23">
         <v>1650</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="27">
         <v>35</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="27">
         <v>0.4</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <v>40</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="27">
         <v>1</v>
       </c>
-      <c r="P14" s="114" t="s">
+      <c r="P14" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114" t="s">
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="S14" s="114" t="s">
+      <c r="S14" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="T14" s="114" t="s">
+      <c r="T14" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U14" s="114" t="s">
+      <c r="U14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V14" s="115" t="s">
+      <c r="V14" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="str">
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="str">
         <f>R15</f>
         <v>ELCTNOIL01</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <v>2006</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="27">
         <v>0.3</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="27">
         <v>0.85</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="23">
         <v>250</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="27">
         <v>15</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="27">
         <v>0.2</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <v>40</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="27">
         <v>1</v>
       </c>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114" t="s">
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="S15" s="114" t="s">
+      <c r="S15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="T15" s="114" t="s">
+      <c r="T15" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="114" t="s">
+      <c r="U15" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V15" s="114"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="str">
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="str">
         <f>R16</f>
         <v>ELCTNGAS01</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>2006</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="23">
         <v>2006</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="27">
         <v>0.5</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="27">
         <v>0.85</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <v>750</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="27">
         <v>30</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="27">
         <v>0.35</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>30</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="27">
         <v>1</v>
       </c>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114" t="s">
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="S16" s="114" t="s">
+      <c r="S16" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="114" t="s">
+      <c r="T16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="114" t="s">
+      <c r="U16" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114" t="s">
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>2010</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="27">
         <v>0.51</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114" t="s">
+      <c r="H17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="117" t="s">
+      <c r="S17" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="T17" s="114" t="s">
+      <c r="T17" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U17" s="114" t="s">
+      <c r="U17" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <v>2015</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="27">
         <v>0.52</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114" t="s">
+      <c r="H18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="S18" s="117" t="s">
+      <c r="S18" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="T18" s="114" t="s">
+      <c r="T18" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U18" s="114" t="s">
+      <c r="U18" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="116"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
     </row>
     <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <v>2020</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114" t="s">
+      <c r="H19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="S19" s="117" t="s">
+      <c r="S19" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="T19" s="114" t="s">
+      <c r="T19" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U19" s="114" t="s">
+      <c r="U19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V19" s="116"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
     </row>
     <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E20"/>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <v>2015</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="27">
         <v>0.33</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="27">
         <v>0.95</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="23">
         <v>3750</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>60</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="27">
         <v>2</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <v>60</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="27">
         <v>1</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114" t="s">
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="S20" s="117" t="s">
+      <c r="S20" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="T20" s="114" t="s">
+      <c r="T20" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U20" s="114" t="s">
+      <c r="U20" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V20" s="116"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="27" t="str">
+      <c r="B21" s="23" t="str">
         <f>R17</f>
         <v>ELCRNBIO01</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <v>2006</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="27">
         <v>0.35</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="27">
         <v>0.6</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="23">
         <v>2500</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>25</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="27">
         <v>0.35</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <v>25</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="27">
         <v>1</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="P21" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="119" t="s">
+      <c r="Q21" s="71"/>
+      <c r="R21" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="S21" s="117" t="s">
+      <c r="S21" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="T21" s="114" t="s">
+      <c r="T21" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="U21" s="114" t="s">
+      <c r="U21" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="V21" s="115" t="s">
+      <c r="V21" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="27" t="str">
+      <c r="B22" s="23" t="str">
         <f>R18</f>
         <v>ELCRNHYD01</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <v>2015</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="27">
         <v>1</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="27">
         <v>0.5</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="23">
         <v>3000</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>50</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="27">
         <v>2</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <v>50</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="27">
         <v>0.5</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="9"/>
+      <c r="R22" s="23"/>
+      <c r="V22" s="2"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="str">
+      <c r="B23" s="23" t="str">
         <f>R19</f>
         <v>ELCRNWIN01</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <v>2006</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="27">
         <v>1</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="27">
         <v>0.35</v>
       </c>
-      <c r="I23" s="25">
-        <v>1500</v>
-      </c>
-      <c r="J23" s="25">
+      <c r="I23" s="23">
+        <f>1500*1.25</f>
+        <v>1875</v>
+      </c>
+      <c r="J23" s="23">
         <v>35</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="27">
         <v>0.5</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="23">
         <v>20</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="27">
         <v>0.3</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="str">
+      <c r="B24" s="23" t="str">
         <f>R20</f>
         <v>ELCRNSOL01</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>2006</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="27">
         <v>1</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="27">
         <v>0.3</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="23">
         <v>3000</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="23">
         <v>60</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="25">
+      <c r="K24" s="27"/>
+      <c r="L24" s="23">
         <v>15</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="27">
         <v>0.2</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5849,8 +5717,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -5858,20 +5726,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -5883,524 +5751,408 @@
     <col min="24" max="24" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="44" t="str">
+      <c r="D4" s="14" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P5" s="110" t="s">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="P5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="Q5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="R5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="S5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="U5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="110" t="s">
+      <c r="V5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="110" t="s">
+      <c r="W5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="110" t="s">
+      <c r="X5" s="67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="112" t="s">
+    <row r="6" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="P6" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="112" t="s">
+      <c r="T6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="V6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="112" t="s">
+      <c r="W6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="112" t="s">
+      <c r="X6" s="69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="108" t="s">
+      <c r="P10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="Q10" s="65"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="110" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="111" t="s">
+      <c r="Q11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="R11" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="110" t="s">
+      <c r="S11" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="110" t="s">
+      <c r="T11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="110" t="s">
+      <c r="U11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="110" t="s">
+      <c r="V11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="110" t="s">
+      <c r="W11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="110" t="s">
+      <c r="X11" s="67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="73" t="s">
+    <row r="12" spans="1:24" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="113" t="s">
+      <c r="P12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="113" t="s">
+      <c r="Q12" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="113" t="s">
+      <c r="R12" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="113" t="s">
+      <c r="S12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="113" t="s">
+      <c r="T12" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="113" t="s">
+      <c r="U12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="113" t="s">
+      <c r="V12" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="W12" s="113" t="s">
+      <c r="W12" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="113" t="s">
+      <c r="X12" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72" t="s">
+    <row r="13" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="112" t="s">
+      <c r="N13" s="19"/>
+      <c r="P13" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="112"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="27"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="27"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="N14" s="27"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="N15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="7:22" x14ac:dyDescent="0.2">
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="S17" s="21"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.2">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.2">
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.2">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="N20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6408,8 +6160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
@@ -6436,141 +6188,140 @@
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.140625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="25"/>
+    <col min="20" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51" t="s">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K3" s="110" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="K3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="110" t="s">
+      <c r="Q3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="R3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="110" t="s">
+      <c r="S3" s="67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="112" t="s">
+      <c r="O4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="108"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L7" s="65"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6582,494 +6333,196 @@
       <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="110" t="s">
+      <c r="M8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="110" t="s">
+      <c r="O8" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="110" t="s">
+      <c r="P8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="110" t="s">
+      <c r="Q8" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="110" t="s">
+      <c r="R8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="110" t="s">
+      <c r="S8" s="67" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="72" t="s">
+    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="112" t="s">
+      <c r="K9" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="112" t="s">
+      <c r="L9" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="112" t="s">
+      <c r="M9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="112" t="s">
+      <c r="N9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="112" t="s">
+      <c r="O9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="112" t="s">
+      <c r="P9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="112" t="s">
+      <c r="Q9" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="112" t="s">
+      <c r="R9" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="112" t="s">
+      <c r="S9" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="72" t="s">
+    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="112" t="s">
+      <c r="K10" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-    </row>
-    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-    </row>
-    <row r="27" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="43"/>
+      <c r="K11" s="2"/>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="43"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="43"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="30"/>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="30"/>
+      <c r="N15" s="21"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="44"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7078,8 +6531,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -7116,201 +6569,183 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="108" t="s">
+      <c r="M5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="110" t="s">
+      <c r="M6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="111" t="s">
+      <c r="N6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="110" t="s">
+      <c r="P6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="110" t="s">
+      <c r="S6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="110" t="s">
+      <c r="T6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="110" t="s">
+      <c r="U6" s="67" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="112" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="M7" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="112" t="s">
+      <c r="N7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="112" t="s">
+      <c r="O7" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="112" t="s">
+      <c r="P7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="112" t="s">
+      <c r="Q7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="112" t="s">
+      <c r="R7" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="112" t="s">
+      <c r="S7" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="112" t="s">
+      <c r="T7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="112" t="s">
+      <c r="U7" s="69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="M8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D11" s="6" t="s">
@@ -7321,170 +6756,170 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="41"/>
-      <c r="M11" s="108" t="s">
+      <c r="K11" s="33"/>
+      <c r="M11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="108"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="111" t="s">
+      <c r="N12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="110" t="s">
+      <c r="O12" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="110" t="s">
+      <c r="P12" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="110" t="s">
+      <c r="Q12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="110" t="s">
+      <c r="R12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="110" t="s">
+      <c r="S12" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="110" t="s">
+      <c r="T12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="110" t="s">
+      <c r="U12" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="112" t="s">
+      <c r="M13" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="112" t="s">
+      <c r="N13" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="112" t="s">
+      <c r="O13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="112" t="s">
+      <c r="Q13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="112" t="s">
+      <c r="R13" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="112" t="s">
+      <c r="S13" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="T13" s="112" t="s">
+      <c r="T13" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="U13" s="112" t="s">
+      <c r="U13" s="69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="85" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="112" t="s">
+      <c r="M14" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="str">
+      <c r="B15" t="str">
         <f t="shared" ref="B15:B38" si="0">O15</f>
         <v>CSHNCOA1</v>
       </c>
@@ -7494,49 +6929,49 @@
       <c r="D15" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="30">
         <v>2006</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="31">
         <v>0.88</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="31">
         <v>0.3</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>31.536000000000001</v>
       </c>
       <c r="I15">
         <v>400</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="30">
         <v>10</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15">
         <v>20</v>
       </c>
-      <c r="M15" s="115" t="s">
+      <c r="M15" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114" t="s">
+      <c r="N15" s="71"/>
+      <c r="O15" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="121" t="s">
+      <c r="P15" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" s="114" t="s">
+      <c r="Q15" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="114" t="s">
+      <c r="R15" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="35" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>CSHNGAS1</v>
       </c>
@@ -7546,47 +6981,47 @@
       <c r="D16" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <v>2006</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="31">
         <v>0.93</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="31">
         <v>0.3</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16">
         <v>300</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="30">
         <v>7.5</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114" t="s">
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="P16" s="121" t="s">
+      <c r="P16" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="114" t="s">
+      <c r="Q16" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="114" t="s">
+      <c r="R16" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>CSHNOIL1</v>
       </c>
@@ -7596,47 +7031,47 @@
       <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <v>2006</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="31">
         <v>0.83</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="31">
         <v>0.3</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="23">
         <v>250</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="30">
         <v>6.25</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17">
         <v>20</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114" t="s">
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="P17" s="121" t="s">
+      <c r="P17" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="Q17" s="114" t="s">
+      <c r="Q17" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="114" t="s">
+      <c r="R17" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="35" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>CSHNBIO1</v>
       </c>
@@ -7646,47 +7081,47 @@
       <c r="D18" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="30">
         <v>2006</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="31">
         <v>0.8</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="31">
         <v>0.3</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="23">
         <v>750</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="30">
         <v>12.5</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18">
         <v>20</v>
       </c>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114" t="s">
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="P18" s="121" t="s">
+      <c r="P18" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="Q18" s="114" t="s">
+      <c r="Q18" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="114" t="s">
+      <c r="R18" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="35" t="str">
+      <c r="B19" t="str">
         <f>O19</f>
         <v>CSHNSOL1</v>
       </c>
@@ -7696,145 +7131,145 @@
       <c r="D19" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <v>2006</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="31">
         <v>1</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="31">
         <v>0.3</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <v>1000</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="30">
         <v>20</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19">
         <v>15</v>
       </c>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114" t="s">
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="121" t="s">
+      <c r="P19" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="Q19" s="114" t="s">
+      <c r="Q19" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="114" t="s">
+      <c r="R19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="35" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>CSHNELC1</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="30">
         <v>2006</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="31">
         <v>0.96</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="31">
         <v>0.3</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="50">
         <v>400</v>
       </c>
-      <c r="J20" s="96">
+      <c r="J20" s="56">
         <v>10</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20">
         <v>20</v>
       </c>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114" t="s">
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="121" t="s">
+      <c r="P20" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="114" t="s">
+      <c r="Q20" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R20" s="114" t="s">
+      <c r="R20" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="87" t="str">
+      <c r="B21" s="51" t="str">
         <f t="shared" si="0"/>
         <v>CAPNELC1</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="53">
         <v>2006</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="51">
         <v>1.02</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="52">
         <v>0.3</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="52">
         <v>1</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="52">
         <v>0.5</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="91">
+      <c r="J21" s="51"/>
+      <c r="K21" s="51">
         <v>5</v>
       </c>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114" t="s">
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="121" t="s">
+      <c r="P21" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="Q21" s="114" t="s">
+      <c r="Q21" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="114" t="s">
+      <c r="R21" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>COTNCOA1</v>
       </c>
@@ -7844,45 +7279,45 @@
       <c r="D22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="30">
         <v>2006</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="31">
         <v>1.02</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="31">
         <v>0.3</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="31">
         <v>1</v>
       </c>
-      <c r="I22" s="90">
+      <c r="I22" s="31">
         <v>1</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="8">
+      <c r="J22" s="33"/>
+      <c r="K22">
         <v>15</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114" t="s">
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="121" t="s">
+      <c r="P22" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="114" t="s">
+      <c r="Q22" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R22" s="114" t="s">
+      <c r="R22" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>COTNGAS1</v>
       </c>
@@ -7892,45 +7327,45 @@
       <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="30">
         <v>2006</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="31">
         <v>1.05</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="31">
         <v>0.3</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="31">
         <v>1</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I23" s="31">
         <v>0.5</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="8">
+      <c r="J23" s="33"/>
+      <c r="K23">
         <v>15</v>
       </c>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114" t="s">
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="P23" s="121" t="s">
+      <c r="P23" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="Q23" s="114" t="s">
+      <c r="Q23" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R23" s="114" t="s">
+      <c r="R23" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>COTNOIL1</v>
       </c>
@@ -7940,44 +7375,44 @@
       <c r="D24" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="30">
         <v>2006</v>
       </c>
       <c r="F24">
         <v>1.02</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="31">
         <v>0.3</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="31">
         <v>1</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I24" s="31">
         <v>0.3</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24">
         <v>15</v>
       </c>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114" t="s">
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="121" t="s">
+      <c r="P24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="Q24" s="114" t="s">
+      <c r="Q24" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R24" s="114" t="s">
+      <c r="R24" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="35" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>COTNBIO1</v>
       </c>
@@ -7987,815 +7422,745 @@
       <c r="D25" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="30">
         <v>2006</v>
       </c>
       <c r="F25">
         <v>1.02</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="31">
         <v>0.3</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="31">
         <v>1</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="31">
         <v>1</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25">
         <v>15</v>
       </c>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114" t="s">
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="P25" s="121" t="s">
+      <c r="P25" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="Q25" s="114" t="s">
+      <c r="Q25" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="114" t="s">
+      <c r="R25" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
     </row>
     <row r="26" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="98" t="str">
+      <c r="B26" s="57" t="str">
         <f t="shared" si="0"/>
         <v>COTNELC1</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="98" t="s">
+      <c r="D26" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="99">
+      <c r="E26" s="58">
         <v>2006</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="57">
         <v>1.05</v>
       </c>
-      <c r="G26" s="100">
+      <c r="G26" s="59">
         <v>0.3</v>
       </c>
-      <c r="H26" s="100">
+      <c r="H26" s="59">
         <v>1</v>
       </c>
-      <c r="I26" s="100">
+      <c r="I26" s="59">
         <v>0.75</v>
       </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="101">
+      <c r="J26" s="57"/>
+      <c r="K26" s="57">
         <v>15</v>
       </c>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122" t="s">
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="123" t="s">
+      <c r="P26" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="Q26" s="122" t="s">
+      <c r="Q26" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="R26" s="122" t="s">
+      <c r="R26" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>RSHNCOA1</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="30">
         <v>2006</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="31">
         <v>0.88</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G27" s="31">
         <v>0.3</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="23">
         <v>31.536000000000001</v>
       </c>
       <c r="I27">
         <v>400</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="30">
         <v>10</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27">
         <v>20</v>
       </c>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="115" t="s">
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="P27" s="121" t="s">
+      <c r="P27" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="Q27" s="114" t="s">
+      <c r="Q27" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R27" s="114" t="s">
+      <c r="R27" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>RSHNGAS1</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="30">
         <v>2006</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="31">
         <v>0.93</v>
       </c>
-      <c r="G28" s="88">
+      <c r="G28" s="31">
         <v>0.3</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28">
         <v>300</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="30">
         <v>7.5</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28">
         <v>20</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="115" t="s">
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="P28" s="121" t="s">
+      <c r="P28" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q28" s="114" t="s">
+      <c r="Q28" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="114" t="s">
+      <c r="R28" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="35" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>RSHNOIL1</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="30">
         <v>2006</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="31">
         <v>0.83</v>
       </c>
-      <c r="G29" s="88">
+      <c r="G29" s="31">
         <v>0.3</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="23">
         <v>250</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="30">
         <v>6.25</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29">
         <v>20</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="115" t="s">
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="P29" s="121" t="s">
+      <c r="P29" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="Q29" s="114" t="s">
+      <c r="Q29" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R29" s="114" t="s">
+      <c r="R29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>RSHNBIO1</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="30">
         <v>2006</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="31">
         <v>0.8</v>
       </c>
-      <c r="G30" s="88">
+      <c r="G30" s="31">
         <v>0.3</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="23">
         <v>750</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="30">
         <v>12.5</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30">
         <v>20</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="115" t="s">
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="P30" s="121" t="s">
+      <c r="P30" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="Q30" s="114" t="s">
+      <c r="Q30" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R30" s="114" t="s">
+      <c r="R30" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="str">
+      <c r="B31" t="str">
         <f>O31</f>
         <v>RSHNSOL1</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="30">
         <v>2006</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="31">
         <v>1</v>
       </c>
-      <c r="G31" s="88">
+      <c r="G31" s="31">
         <v>0.3</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="23">
         <v>1000</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="30">
         <v>20</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31">
         <v>15</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="115" t="s">
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="121" t="s">
+      <c r="P31" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="Q31" s="114" t="s">
+      <c r="Q31" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R31" s="114" t="s">
+      <c r="R31" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>RSHNELC1</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="30">
         <v>2006</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="31">
         <v>0.96</v>
       </c>
-      <c r="G32" s="90">
+      <c r="G32" s="31">
         <v>0.3</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="23">
         <v>31.536000000000001</v>
       </c>
-      <c r="I32" s="86">
+      <c r="I32" s="50">
         <v>400</v>
       </c>
-      <c r="J32" s="96">
+      <c r="J32" s="56">
         <v>10</v>
       </c>
-      <c r="K32" s="54">
+      <c r="K32">
         <v>20</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="115" t="s">
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="P32" s="121" t="s">
+      <c r="P32" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="Q32" s="114" t="s">
+      <c r="Q32" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R32" s="114" t="s">
+      <c r="R32" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="87" t="str">
+      <c r="B33" s="51" t="str">
         <f t="shared" si="0"/>
         <v>RAPNELC1</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E33" s="53">
         <v>2006</v>
       </c>
-      <c r="F33" s="87">
+      <c r="F33" s="51">
         <v>1.02</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="52">
         <v>0.3</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="52">
         <v>1</v>
       </c>
-      <c r="I33" s="97">
+      <c r="I33" s="52">
         <v>0.5</v>
       </c>
-      <c r="J33" s="87"/>
-      <c r="K33" s="91">
+      <c r="J33" s="51"/>
+      <c r="K33" s="51">
         <v>5</v>
       </c>
-      <c r="L33" s="54"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="115" t="s">
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="P33" s="121" t="s">
+      <c r="P33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="Q33" s="114" t="s">
+      <c r="Q33" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R33" s="114" t="s">
+      <c r="R33" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>ROTNCOA1</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="30">
         <v>2006</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="31">
         <v>1.02</v>
       </c>
-      <c r="G34" s="88">
+      <c r="G34" s="31">
         <v>0.3</v>
       </c>
-      <c r="H34" s="88">
+      <c r="H34" s="31">
         <v>1</v>
       </c>
-      <c r="I34" s="90">
+      <c r="I34" s="31">
         <v>1</v>
       </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="8">
+      <c r="J34" s="33"/>
+      <c r="K34">
         <v>15</v>
       </c>
-      <c r="L34" s="83"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="115" t="s">
+      <c r="L34" s="47"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="P34" s="121" t="s">
+      <c r="P34" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Q34" s="114" t="s">
+      <c r="Q34" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R34" s="114" t="s">
+      <c r="R34" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B35" s="35" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNGAS1</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="30">
         <v>2006</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="31">
         <v>1.05</v>
       </c>
-      <c r="G35" s="88">
+      <c r="G35" s="31">
         <v>0.3</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="31">
         <v>1</v>
       </c>
-      <c r="I35" s="90">
+      <c r="I35" s="31">
         <v>0.5</v>
       </c>
-      <c r="J35" s="65"/>
-      <c r="K35" s="8">
+      <c r="J35" s="33"/>
+      <c r="K35">
         <v>15</v>
       </c>
-      <c r="L35" s="84"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="115" t="s">
+      <c r="L35" s="48"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="P35" s="121" t="s">
+      <c r="P35" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="Q35" s="114" t="s">
+      <c r="Q35" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R35" s="114" t="s">
+      <c r="R35" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B36" s="35" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>ROTNOIL1</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="30">
         <v>2006</v>
       </c>
       <c r="F36">
         <v>1.02</v>
       </c>
-      <c r="G36" s="88">
+      <c r="G36" s="31">
         <v>0.3</v>
       </c>
-      <c r="H36" s="88">
+      <c r="H36" s="31">
         <v>1</v>
       </c>
-      <c r="I36" s="90">
+      <c r="I36" s="31">
         <v>0.3</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36">
         <v>15</v>
       </c>
-      <c r="L36" s="54"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="115" t="s">
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="P36" s="121" t="s">
+      <c r="P36" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="Q36" s="114" t="s">
+      <c r="Q36" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R36" s="114" t="s">
+      <c r="R36" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>ROTNBIO1</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="30">
         <v>2006</v>
       </c>
       <c r="F37">
         <v>1.02</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G37" s="31">
         <v>0.3</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="31">
         <v>1</v>
       </c>
-      <c r="I37" s="90">
+      <c r="I37" s="31">
         <v>1</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37">
         <v>15</v>
       </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="115" t="s">
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="P37" s="121" t="s">
+      <c r="P37" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="Q37" s="114" t="s">
+      <c r="Q37" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R37" s="114" t="s">
+      <c r="R37" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
     </row>
     <row r="38" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="98" t="str">
+      <c r="B38" s="57" t="str">
         <f t="shared" si="0"/>
         <v>ROTNELC1</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="58">
         <v>2006</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="57">
         <v>1.05</v>
       </c>
-      <c r="G38" s="100">
+      <c r="G38" s="59">
         <v>0.3</v>
       </c>
-      <c r="H38" s="100">
+      <c r="H38" s="59">
         <v>1</v>
       </c>
-      <c r="I38" s="100">
+      <c r="I38" s="59">
         <v>0.75</v>
       </c>
-      <c r="J38" s="98"/>
-      <c r="K38" s="101">
+      <c r="J38" s="57"/>
+      <c r="K38" s="57">
         <v>15</v>
       </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="115" t="s">
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="P38" s="121" t="s">
+      <c r="P38" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="Q38" s="114" t="s">
+      <c r="Q38" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="R38" s="114" t="s">
+      <c r="R38" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8805,10 +8170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -8826,7 +8191,7 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="2" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -8839,143 +8204,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="111" t="s">
+      <c r="O3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="110" t="s">
+      <c r="Q3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="110" t="s">
+      <c r="R3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="110" t="s">
+      <c r="S3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="110" t="s">
+      <c r="T3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="110" t="s">
+      <c r="U3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="110" t="s">
+      <c r="V3" s="67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="112" t="s">
+    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="N4" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="112" t="s">
+      <c r="O4" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="112" t="s">
+      <c r="S4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="112" t="s">
+      <c r="T4" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="112" t="s">
+      <c r="U4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="112" t="s">
+      <c r="V4" s="69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D8" s="6" t="s">
@@ -8984,184 +8347,183 @@
       <c r="E8" s="6"/>
       <c r="G8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="65"/>
-      <c r="M8"/>
-      <c r="N8" s="108" t="s">
+      <c r="K8" s="33"/>
+      <c r="N8" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="110" t="s">
+      <c r="M9" s="25"/>
+      <c r="N9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="111" t="s">
+      <c r="O9" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="110" t="s">
+      <c r="R9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="110" t="s">
+      <c r="S9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="110" t="s">
+      <c r="T9" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="110" t="s">
+      <c r="U9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="110" t="s">
+      <c r="V9" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="112" t="s">
+      <c r="M10" s="37"/>
+      <c r="N10" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="112" t="s">
+      <c r="O10" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="112" t="s">
+      <c r="P10" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="112" t="s">
+      <c r="Q10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="112" t="s">
+      <c r="R10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="112" t="s">
+      <c r="S10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="112" t="s">
+      <c r="T10" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="112" t="s">
+      <c r="U10" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="V10" s="112" t="s">
+      <c r="V10" s="69" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="63" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="124" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
@@ -9177,49 +8539,48 @@
       <c r="E12">
         <v>2006</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="31">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="30">
         <v>14</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="31">
         <v>1.25</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="40">
         <v>18</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="31">
         <v>0.16</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="39">
         <v>1E-3</v>
       </c>
-      <c r="M12"/>
-      <c r="N12" s="115" t="s">
+      <c r="N12" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="114"/>
-      <c r="P12" s="109" t="s">
+      <c r="O12" s="71"/>
+      <c r="P12" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="Q12" s="109" t="s">
+      <c r="Q12" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="R12" s="116" t="s">
+      <c r="R12" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S12" s="116" t="s">
+      <c r="S12" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116" t="s">
+      <c r="T12" s="71"/>
+      <c r="U12" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="114"/>
+      <c r="V12" s="71"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
@@ -9235,47 +8596,46 @@
       <c r="E13">
         <v>2006</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="31">
         <v>0.43049999999999999</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="30">
         <v>16.5</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="31">
         <v>1.25</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="40">
         <v>16</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="31">
         <v>0.16</v>
       </c>
       <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="39">
         <v>1E-3</v>
       </c>
-      <c r="M13"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="109" t="s">
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="Q13" s="109" t="s">
+      <c r="Q13" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="116" t="s">
+      <c r="R13" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S13" s="116" t="s">
+      <c r="S13" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116" t="s">
+      <c r="T13" s="71"/>
+      <c r="U13" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V13" s="114"/>
+      <c r="V13" s="71"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
@@ -9291,47 +8651,46 @@
       <c r="E14">
         <v>2006</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="31">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="30">
         <v>14</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="31">
         <v>1.25</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="40">
         <v>15.5</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="31">
         <v>0.16</v>
       </c>
       <c r="K14">
         <v>10</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="39">
         <v>1E-3</v>
       </c>
-      <c r="M14"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="109" t="s">
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="Q14" s="109" t="s">
+      <c r="Q14" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="R14" s="116" t="s">
+      <c r="R14" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S14" s="116" t="s">
+      <c r="S14" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116" t="s">
+      <c r="T14" s="71"/>
+      <c r="U14" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V14" s="114"/>
+      <c r="V14" s="71"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
@@ -9347,47 +8706,46 @@
       <c r="E15">
         <v>2006</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="31">
         <v>0.42000000000000004</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="30">
         <v>11.5</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="31">
         <v>1.25</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="40">
         <v>15.5</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="31">
         <v>0.15</v>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="39">
         <v>1E-3</v>
       </c>
-      <c r="M15"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="109" t="s">
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="Q15" s="109" t="s">
+      <c r="Q15" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="R15" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S15" s="116" t="s">
+      <c r="S15" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116" t="s">
+      <c r="T15" s="71"/>
+      <c r="U15" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V15" s="114"/>
+      <c r="V15" s="71"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
@@ -9403,103 +8761,101 @@
       <c r="E16">
         <v>2010</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="31">
         <v>0.42000000000000004</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="30">
         <v>15</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="31">
         <v>1.25</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="40">
         <v>18</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="31">
         <v>0.15</v>
       </c>
       <c r="K16">
         <v>10</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="39">
         <v>1E-3</v>
       </c>
-      <c r="M16"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="109" t="s">
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="Q16" s="109" t="s">
+      <c r="Q16" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="R16" s="116" t="s">
+      <c r="R16" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S16" s="116" t="s">
+      <c r="S16" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116" t="s">
+      <c r="T16" s="71"/>
+      <c r="U16" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V16" s="114"/>
+      <c r="V16" s="71"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="86" t="str">
+      <c r="B17" s="50" t="str">
         <f t="shared" si="0"/>
         <v>TCANELC1</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="50">
         <v>2010</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="54">
         <v>0.42000000000000004</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="56">
         <v>8</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="54">
         <v>1.25</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="55">
         <v>25</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="54">
         <v>0.15</v>
       </c>
-      <c r="K17" s="86">
+      <c r="K17" s="50">
         <v>10</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="62">
         <v>1E-3</v>
       </c>
-      <c r="M17"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127" t="s">
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="Q17" s="127" t="s">
+      <c r="Q17" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="R17" s="128" t="s">
+      <c r="R17" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="S17" s="128" t="s">
+      <c r="S17" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128" t="s">
+      <c r="T17" s="79"/>
+      <c r="U17" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="V17" s="126"/>
+      <c r="V17" s="79"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
@@ -9515,7 +8871,7 @@
       <c r="E18">
         <v>2006</v>
       </c>
-      <c r="F18" s="67">
+      <c r="F18" s="31">
         <v>0.10500000000000001</v>
       </c>
       <c r="G18">
@@ -9524,10 +8880,10 @@
       <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="40">
         <v>27</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="31">
         <v>0.24</v>
       </c>
       <c r="K18">
@@ -9536,25 +8892,25 @@
       <c r="L18">
         <v>1E-3</v>
       </c>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="109" t="s">
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="Q18" s="109" t="s">
+      <c r="Q18" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S18" s="116" t="s">
+      <c r="S18" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116" t="s">
+      <c r="T18" s="71"/>
+      <c r="U18" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V18" s="114"/>
+      <c r="V18" s="71"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
@@ -9570,7 +8926,7 @@
       <c r="E19">
         <v>2006</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="31">
         <v>0.1575</v>
       </c>
       <c r="G19">
@@ -9579,10 +8935,10 @@
       <c r="H19">
         <v>15</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="40">
         <v>24</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="31">
         <v>0.24</v>
       </c>
       <c r="K19">
@@ -9591,25 +8947,25 @@
       <c r="L19">
         <v>1E-3</v>
       </c>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="109" t="s">
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="Q19" s="109" t="s">
+      <c r="Q19" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S19" s="116" t="s">
+      <c r="S19" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116" t="s">
+      <c r="T19" s="71"/>
+      <c r="U19" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V19" s="116"/>
+      <c r="V19" s="71"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
@@ -9625,7 +8981,7 @@
       <c r="E20">
         <v>2006</v>
       </c>
-      <c r="F20" s="67">
+      <c r="F20" s="31">
         <v>0.10500000000000001</v>
       </c>
       <c r="G20">
@@ -9634,10 +8990,10 @@
       <c r="H20">
         <v>15</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="40">
         <v>23.25</v>
       </c>
-      <c r="J20" s="67">
+      <c r="J20" s="31">
         <v>0.24</v>
       </c>
       <c r="K20">
@@ -9646,25 +9002,25 @@
       <c r="L20">
         <v>1E-3</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="109" t="s">
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="Q20" s="109" t="s">
+      <c r="Q20" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="R20" s="116" t="s">
+      <c r="R20" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S20" s="116" t="s">
+      <c r="S20" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116" t="s">
+      <c r="T20" s="71"/>
+      <c r="U20" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V20" s="116"/>
+      <c r="V20" s="71"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
@@ -9680,7 +9036,7 @@
       <c r="E21">
         <v>2006</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="31">
         <v>0.1575</v>
       </c>
       <c r="G21">
@@ -9689,10 +9045,10 @@
       <c r="H21">
         <v>15</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="40">
         <v>23.25</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="31">
         <v>0.22499999999999998</v>
       </c>
       <c r="K21">
@@ -9701,25 +9057,25 @@
       <c r="L21">
         <v>1E-3</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="109" t="s">
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="Q21" s="109" t="s">
+      <c r="Q21" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="R21" s="116" t="s">
+      <c r="R21" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S21" s="116" t="s">
+      <c r="S21" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116" t="s">
+      <c r="T21" s="71"/>
+      <c r="U21" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V21" s="116"/>
+      <c r="V21" s="71"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
@@ -9735,7 +9091,7 @@
       <c r="E22">
         <v>2006</v>
       </c>
-      <c r="F22" s="67">
+      <c r="F22" s="31">
         <v>0.1575</v>
       </c>
       <c r="G22">
@@ -9744,10 +9100,10 @@
       <c r="H22">
         <v>15</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="40">
         <v>27</v>
       </c>
-      <c r="J22" s="67">
+      <c r="J22" s="31">
         <v>0.22499999999999998</v>
       </c>
       <c r="K22">
@@ -9756,25 +9112,25 @@
       <c r="L22">
         <v>1E-3</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="109" t="s">
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="Q22" s="109" t="s">
+      <c r="Q22" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="R22" s="116" t="s">
+      <c r="R22" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S22" s="116" t="s">
+      <c r="S22" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116" t="s">
+      <c r="T22" s="71"/>
+      <c r="U22" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V22" s="116"/>
+      <c r="V22" s="71"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" t="str">
@@ -9790,7 +9146,7 @@
       <c r="E23">
         <v>2010</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="31">
         <v>3.15E-2</v>
       </c>
       <c r="G23">
@@ -9799,10 +9155,10 @@
       <c r="H23">
         <v>200</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="40">
         <v>37.5</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="31">
         <v>0.22499999999999998</v>
       </c>
       <c r="K23">
@@ -9811,28 +9167,28 @@
       <c r="L23">
         <v>1E-3</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="109" t="s">
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="Q23" s="109" t="s">
+      <c r="Q23" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="R23" s="116" t="s">
+      <c r="R23" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="S23" s="116" t="s">
+      <c r="S23" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116" t="s">
+      <c r="T23" s="71"/>
+      <c r="U23" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="V23" s="116"/>
+      <c r="V23" s="71"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F25" s="67"/>
+      <c r="F25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9842,7 +9198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -9854,32 +9210,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="106"/>
-    <col min="13" max="13" width="5" style="106" customWidth="1"/>
-    <col min="14" max="15" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" style="106"/>
-    <col min="27" max="27" width="2" style="106" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="106"/>
+    <col min="1" max="1" width="2" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="9.140625" style="63"/>
+    <col min="13" max="13" width="5" style="63" customWidth="1"/>
+    <col min="14" max="15" width="2" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" style="63"/>
+    <col min="27" max="27" width="2" style="63" customWidth="1"/>
+    <col min="28" max="28" width="2.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="P2" s="107" t="s">
+      <c r="P2" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AC2" s="107" t="s">
+      <c r="AC2" s="64" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="AC2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
